--- a/DOC/結合テスト/給料明細リスト結合テスト_項目仕様書.xlsx
+++ b/DOC/結合テスト/給料明細リスト結合テスト_項目仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -898,8 +898,7 @@
     <t>画面チェック</t>
   </si>
   <si>
-    <t>今年度と今年度の給料明細リスト
-が画面に表示。前年度と次年度のボタン表示。</t>
+    <t>画面初期表示に今年度表示。今年度の給料明細リストが画面に表示。前年度と次年度のボタン表示。各月の明細ボタン表示。</t>
   </si>
   <si>
     <t xml:space="preserve">左側の給料明細リストをクリックする
@@ -916,21 +915,21 @@
     <t>次年度のボタンチェック</t>
   </si>
   <si>
-    <t>年度変更、次年度の明細リストが画面に表示。</t>
+    <t>次年度の明細リストが画面に表示。次年度のボタンがクリック可能。画面初期表示に次年度表示。</t>
   </si>
   <si>
     <t xml:space="preserve">右側の次年度ボタンを押す。
 </t>
   </si>
   <si>
-    <t>チェック結果が画面に表示される。
+    <t>チェック結果が画面に表示される。次年度ボタンが押せられる。画面初期表示に次年度が表示される。
 参照：データベースに入力した次年度データ</t>
   </si>
   <si>
     <t>前年度のボタンチェック</t>
   </si>
   <si>
-    <t xml:space="preserve">前度変更、前年度の明細リストが画面に表示。
+    <t xml:space="preserve">前度明細リストが画面に表示。前年度のボタンがクリック可能。画面初期表示に前年度表示。
 </t>
   </si>
   <si>
@@ -938,22 +937,21 @@
 </t>
   </si>
   <si>
-    <t>チェック結果が画面に表示される。
+    <t>チェック結果が画面に表示される。前年度ボタンが押せられる。画面初期表示に前年が度表示される。
 参照：データベースに入力した前年度データ</t>
   </si>
   <si>
     <t>明細ボタンチャック</t>
   </si>
   <si>
-    <t>明細画面が表示。選択された年度と給料明細が画面に表示。</t>
+    <t>明細画面が表示。年度オープションが選択された範囲によって変更。</t>
   </si>
   <si>
     <t>明細ボタンを押す。</t>
   </si>
   <si>
-    <t>”給料更新成功”メッセージが画面に表示される。
-DBに更新データがあります。
-参照「変更テストデータ」シート</t>
+    <t>チェック結果が画面に表示される。年度。
+参照：データベースに入力した次年度データ</t>
   </si>
   <si>
     <t>過去給料の変更チェック</t>
@@ -1370,12 +1368,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m"/>
     <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1444,6 +1442,11 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Fj明朝体(ﾓﾄﾔ)"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1460,7 +1463,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,19 +1503,26 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1503,37 +1535,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,6 +1558,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1563,38 +1581,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Fj明朝体(ﾓﾄﾔ)"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1619,7 +1617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,7 +1641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,7 +1659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,7 +1677,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,7 +1701,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,79 +1743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,13 +1755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,7 +1767,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2033,6 +2031,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2044,6 +2057,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,22 +2089,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2104,29 +2122,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2138,149 +2136,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2304,7 +2302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3989,8 +3987,8 @@
   <sheetPr/>
   <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="6"/>
@@ -3998,7 +3996,7 @@
     <col min="1" max="1" width="2.87962962962963" style="19" customWidth="1"/>
     <col min="2" max="2" width="5.37962962962963" style="20" customWidth="1"/>
     <col min="3" max="3" width="34.4444444444444" style="19" customWidth="1"/>
-    <col min="4" max="4" width="42.1111111111111" style="19" customWidth="1"/>
+    <col min="4" max="4" width="44.1111111111111" style="19" customWidth="1"/>
     <col min="5" max="5" width="51.1111111111111" style="19" customWidth="1"/>
     <col min="6" max="6" width="30.2222222222222" style="19" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="19" customWidth="1"/>
@@ -4032,7 +4030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="52.8" spans="2:9">
+    <row r="3" ht="39.6" spans="2:9">
       <c r="B3" s="24">
         <v>1</v>
       </c>
@@ -4058,14 +4056,14 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="4" ht="39.6" spans="2:9">
+    <row r="4" ht="66" spans="2:9">
       <c r="B4" s="24">
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="26" t="s">
@@ -4173,7 +4171,7 @@
   <sheetPr/>
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
